--- a/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderPlaneacion.xlsx
+++ b/TSP docs/Planes/TSP-FormatoPlaneacionIndividual-LiderPlaneacion.xlsx
@@ -194,7 +194,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +231,6 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border/>
@@ -352,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -453,24 +447,6 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -513,13 +489,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.13"/>
-    <col customWidth="1" min="2" max="2" width="31.75"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="26" width="9.38"/>
+    <col customWidth="1" min="1" max="1" width="51.57"/>
+    <col customWidth="1" min="2" max="2" width="36.29"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="5" width="12.14"/>
+    <col customWidth="1" min="6" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -649,8 +625,8 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" ref="H10:H11" si="2">F10/$F$36</f>
-        <v>0.1428571429</v>
+        <f t="shared" ref="H10:H34" si="2">IF(G10&gt;0,E10,0)</f>
+        <v>0.06030150754</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +652,7 @@
       </c>
       <c r="H11" s="22">
         <f t="shared" si="2"/>
-        <v>0.1071428571</v>
+        <v>0.03015075377</v>
       </c>
     </row>
     <row r="12">
@@ -689,7 +665,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="15"/>
@@ -713,8 +692,8 @@
         <v>2.0</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ref="H13:H15" si="4">F13/$F$36</f>
-        <v>0.07142857143</v>
+        <f t="shared" si="2"/>
+        <v>0.04522613065</v>
       </c>
     </row>
     <row r="14">
@@ -741,8 +720,8 @@
         <v>3.0</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.09045226131</v>
       </c>
     </row>
     <row r="15">
@@ -769,8 +748,8 @@
         <v>3.0</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="4"/>
-        <v>0.1428571429</v>
+        <f t="shared" si="2"/>
+        <v>0.03015075377</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +762,10 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="15"/>
@@ -797,7 +779,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="19">
-        <f t="shared" ref="E17:E22" si="5">C17/$C$36</f>
+        <f t="shared" ref="E17:E22" si="4">C17/$C$36</f>
         <v>0.03015075377</v>
       </c>
       <c r="F17" s="20">
@@ -807,8 +789,8 @@
         <v>3.0</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:H22" si="6">F17/$F$36</f>
-        <v>0.07142857143</v>
+        <f t="shared" si="2"/>
+        <v>0.03015075377</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +807,7 @@
         <v>2.0</v>
       </c>
       <c r="E18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.06030150754</v>
       </c>
       <c r="F18" s="20">
@@ -835,8 +817,8 @@
         <v>3.0</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="6"/>
-        <v>0.07142857143</v>
+        <f t="shared" si="2"/>
+        <v>0.06030150754</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +835,7 @@
         <v>2.0</v>
       </c>
       <c r="E19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.04522613065</v>
       </c>
       <c r="F19" s="20">
@@ -863,8 +845,8 @@
         <v>3.0</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="6"/>
-        <v>0.07142857143</v>
+        <f t="shared" si="2"/>
+        <v>0.04522613065</v>
       </c>
     </row>
     <row r="20">
@@ -881,7 +863,7 @@
         <v>2.0</v>
       </c>
       <c r="E20" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.01507537688</v>
       </c>
       <c r="F20" s="33">
@@ -891,61 +873,69 @@
         <v>3.0</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="6"/>
-        <v>0.03571428571</v>
+        <f t="shared" si="2"/>
+        <v>0.01507537688</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="15">
         <v>120.0</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="15">
         <v>2.0</v>
       </c>
-      <c r="E21" s="37">
-        <f t="shared" si="5"/>
+      <c r="E21" s="19">
+        <f t="shared" si="4"/>
         <v>0.06030150754</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="F21" s="20">
+        <v>120.0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.06030150754</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="21">
         <v>60.0</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="21">
         <v>2.0</v>
       </c>
-      <c r="E22" s="37">
-        <f t="shared" si="5"/>
+      <c r="E22" s="19">
+        <f t="shared" si="4"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="F22" s="20">
+        <v>90.0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.03015075377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="23"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="23"/>
@@ -953,7 +943,10 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
@@ -969,13 +962,13 @@
         <v>3.0</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" ref="E24:E28" si="7">C24/$C$36</f>
+        <f t="shared" ref="E24:E28" si="5">C24/$C$36</f>
         <v>0.09045226131</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="15"/>
       <c r="H24" s="22">
-        <f t="shared" ref="H24:H28" si="8">F24/$F$36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -993,13 +986,13 @@
         <v>3.0</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="15"/>
       <c r="H25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1017,13 +1010,13 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.09045226131</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="15"/>
       <c r="H26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1041,13 +1034,13 @@
         <v>3.0</v>
       </c>
       <c r="E27" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.01005025126</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="15"/>
       <c r="H27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1058,34 +1051,37 @@
       <c r="B28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="37">
         <v>60.0</v>
       </c>
       <c r="D28" s="18">
         <v>3.0</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="15"/>
       <c r="H28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="27"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
@@ -1101,13 +1097,13 @@
         <v>4.0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" ref="E30:E34" si="9">C30/$C$36</f>
+        <f t="shared" ref="E30:E34" si="6">C30/$C$36</f>
         <v>0.06030150754</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="15"/>
       <c r="H30" s="22">
-        <f t="shared" ref="H30:H34" si="10">F30/$F$36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1125,13 +1121,13 @@
         <v>4.0</v>
       </c>
       <c r="E31" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.05527638191</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="15"/>
       <c r="H31" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1142,20 +1138,20 @@
       <c r="B32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="37">
         <v>90.0</v>
       </c>
       <c r="D32" s="18">
         <v>4.0</v>
       </c>
       <c r="E32" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.04522613065</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="15"/>
       <c r="H32" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1166,20 +1162,20 @@
       <c r="B33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="37">
         <v>120.0</v>
       </c>
       <c r="D33" s="18">
         <v>4.0</v>
       </c>
       <c r="E33" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.06030150754</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="15"/>
       <c r="H33" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1187,7 +1183,7 @@
       <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="21">
@@ -1197,22 +1193,22 @@
         <v>4.0</v>
       </c>
       <c r="E34" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.03015075377</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="15"/>
       <c r="H34" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="23"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="23"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
@@ -1220,20 +1216,20 @@
       <c r="H35" s="27"/>
     </row>
     <row r="36">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="41">
         <f>SUM(C10:C34)</f>
         <v>1990</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="42">
         <f>SUM(E10:E34)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="41">
         <f>SUM(F10:F33)</f>
-        <v>840</v>
+        <v>1050</v>
       </c>
       <c r="H36" s="22">
         <f>F36/$F$36</f>
